--- a/Incubation/Hardware/Time4CM4_Sandwich/Baseboard/Project Outputs for Time4CM4_Modular/Time4CM4_Modular.xlsx
+++ b/Incubation/Hardware/Time4CM4_Sandwich/Baseboard/Project Outputs for Time4CM4_Modular/Time4CM4_Modular.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Incubation\Hardware\Time4CM4_Sandwich\Baseboard\Project Outputs for Time4CM4_Modular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5142646-124D-404F-B4E7-2F63A3F846F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC3948-0BEE-4FC9-873A-6F064326971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="20100" windowHeight="11295" xr2:uid="{4382996A-A266-49A3-92DE-473421F27725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4382996A-A266-49A3-92DE-473421F27725}"/>
   </bookViews>
   <sheets>
     <sheet name="Time4CM4_Modular" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Time4CM4_Modular!$1:$1</definedName>
@@ -758,7 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DE4149-4875-4E0A-9983-B7DDE81C4CD5}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1530,4 +1533,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E3D5FD-C654-4A59-9863-F5B367CF73A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>